--- a/N_out_refinement/output_forest_model_[experimental_border]_2024-03-31/experimental_border_hyperparameter_2024-03-31.xlsx
+++ b/N_out_refinement/output_forest_model_[experimental_border]_2024-03-31/experimental_border_hyperparameter_2024-03-31.xlsx
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3007403487154266</v>
+        <v>0.3010745280215685</v>
       </c>
       <c r="M2">
-        <v>0.009782911170545238</v>
+        <v>0.01014531518518335</v>
       </c>
     </row>
   </sheetData>
